--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T23:11:23+00:00</t>
+    <t>2024-07-08T16:31:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T16:31:04+00:00</t>
+    <t>2024-07-11T20:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T20:02:03+00:00</t>
+    <t>2024-07-15T14:16:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T14:16:39+00:00</t>
+    <t>2024-07-30T19:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T19:47:38+00:00</t>
+    <t>2024-08-08T16:40:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T16:40:30+00:00</t>
+    <t>2024-08-08T19:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T19:03:14+00:00</t>
+    <t>2024-08-12T19:06:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-12T19:06:04+00:00</t>
+    <t>2024-08-20T21:48:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:48:07+00:00</t>
+    <t>2024-08-22T16:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-22T16:27:20+00:00</t>
+    <t>2024-09-10T18:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T18:56:29+00:00</t>
+    <t>2024-09-12T18:14:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T18:14:21+00:00</t>
+    <t>2024-09-13T20:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T20:57:31+00:00</t>
+    <t>2024-09-16T16:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T16:04:42+00:00</t>
+    <t>2024-09-18T19:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T19:34:29+00:00</t>
+    <t>2024-09-25T18:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T18:09:20+00:00</t>
+    <t>2024-09-26T15:36:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T15:36:52+00:00</t>
+    <t>2024-09-26T17:33:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T17:33:09+00:00</t>
+    <t>2024-09-26T18:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T18:25:51+00:00</t>
+    <t>2024-09-26T19:08:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T19:08:25+00:00</t>
+    <t>2024-10-07T20:39:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T20:39:38+00:00</t>
+    <t>2024-10-08T12:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T12:54:01+00:00</t>
+    <t>2024-10-08T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T13:48:24+00:00</t>
+    <t>2024-10-28T19:33:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T19:33:15+00:00</t>
+    <t>2024-10-30T18:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T18:30:14+00:00</t>
+    <t>2024-11-25T15:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T15:36:07+00:00</t>
+    <t>2025-01-06T15:08:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T15:08:44+00:00</t>
+    <t>2025-01-10T20:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:53:40+00:00</t>
+    <t>2025-01-13T15:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:02:43+00:00</t>
+    <t>2025-01-13T16:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:25:54+00:00</t>
+    <t>2025-01-14T18:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T18:54:07+00:00</t>
+    <t>2025-01-27T23:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T23:56:01+00:00</t>
+    <t>2025-01-28T00:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T00:06:22+00:00</t>
+    <t>2025-02-07T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:45:47+00:00</t>
+    <t>2025-03-11T16:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T16:55:01+00:00</t>
+    <t>2025-03-24T15:08:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T15:08:47+00:00</t>
+    <t>2025-05-11T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -671,42 +671,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.78515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.4375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="37.2421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="108">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:22:51+00:00</t>
+    <t>2025-06-13T15:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -257,7 +257,7 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
@@ -267,7 +267,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -306,10 +306,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -339,7 +335,7 @@
     <t>Value of extension</t>
   </si>
   <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4B/extensibility.html) for a list).</t>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
     <t>example</t>
@@ -1125,7 +1121,7 @@
         <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -1133,10 +1129,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1159,16 +1155,16 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1218,7 +1214,7 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>82</v>
@@ -1233,15 +1229,15 @@
         <v>20</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1264,13 +1260,13 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1297,11 +1293,11 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>20</v>
@@ -1319,7 +1315,7 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -1331,10 +1327,10 @@
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T17:45:57+00:00</t>
+    <t>2025-08-12T18:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-design.xlsx
+++ b/StructureDefinition-research-study-design.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
